--- a/DOC/benodigdjeden.xlsx
+++ b/DOC/benodigdjeden.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willemoldemans/Documents/PROJECTEN/nanpleaf-clone/DOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE4BC1F-16EA-2447-96AA-C6487003BC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94A8B6E-610A-BF43-9BC1-FB0CF56285DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="880" windowWidth="34720" windowHeight="22500" xr2:uid="{A80C2197-BB50-F54D-B81D-2A481EE29B81}"/>
   </bookViews>
@@ -3790,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B5A52D-4882-6A48-BECD-DC599F26639C}">
   <dimension ref="A23:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3885,11 +3885,11 @@
         <v>9</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:D36" si="0">B27-C27</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
         <v>15</v>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="G27">
         <f>F27*D27</f>
-        <v>265.5</v>
+        <v>206.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4034,11 +4034,11 @@
         <v>64</v>
       </c>
       <c r="C35" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>15</v>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="G35">
         <f>F35*D35</f>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4060,11 +4060,11 @@
         <v>64</v>
       </c>
       <c r="C36" s="3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>15</v>
